--- a/data/trans_orig/P62AS2_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2_2015-Edad-trans_orig.xlsx
@@ -2347,7 +2347,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,12%</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,96%</t>
         </is>
       </c>
     </row>
